--- a/archive/estado.xlsx
+++ b/archive/estado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deicy\Downloads\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0067FB-03AD-4620-99E4-857B230235F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1A013-EAF3-41FE-9A8E-6AC39BF4BFEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD697B4E-5A57-4CAD-9699-EACD10411633}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{DD697B4E-5A57-4CAD-9699-EACD10411633}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>SP</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>state_name</t>
+  </si>
+  <si>
+    <t>TABLA</t>
+  </si>
+  <si>
+    <t>estado</t>
   </si>
 </sst>
 </file>
@@ -472,240 +478,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AC1C06-7593-4977-B08B-196B3B028F92}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+CONCATENATE("INSERT INTO ",$F$2," (",$B$1,") VALUES ('",B2,"');")</f>
+        <v>INSERT INTO estado (state_name) VALUES ('SP');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G28" si="0">+CONCATENATE("INSERT INTO ",$F$2," (",$B$1,") VALUES ('",B3,"');")</f>
+        <v>INSERT INTO estado (state_name) VALUES ('SC');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('MG');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('PR');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('RJ');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('RS');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('PA');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('GO');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('ES');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('BA');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('MA');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('MS');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('CE');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('DF');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('RN');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('PE');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('MT');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('AM');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('AP');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('AL');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('RO');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('PB');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('TO');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('PI');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('AC');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('SE');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO estado (state_name) VALUES ('RR');</v>
       </c>
     </row>
   </sheetData>
